--- a/Journal de travail.xlsx
+++ b/Journal de travail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11415"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>DATE</t>
   </si>
@@ -207,6 +207,24 @@
   </si>
   <si>
     <t>Recherches approfondie sur le composant Mathf</t>
+  </si>
+  <si>
+    <t>90 min</t>
+  </si>
+  <si>
+    <t>Réalisation des uses cases</t>
+  </si>
+  <si>
+    <t>60 min</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>Création du repository en ligne</t>
+  </si>
+  <si>
+    <t>Github</t>
   </si>
 </sst>
 </file>
@@ -520,8 +538,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Log" displayName="Log" ref="B2:E36" totalsRowShown="0">
-  <autoFilter ref="B2:E36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Log" displayName="Log" ref="B2:E37" totalsRowShown="0">
+  <autoFilter ref="B2:E37"/>
   <tableColumns count="4">
     <tableColumn id="1" name="DATE" dataCellStyle="Date Column"/>
     <tableColumn id="2" name="HEURE" dataCellStyle="Time Column"/>
@@ -768,10 +786,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E36"/>
+  <dimension ref="B1:E37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -808,8 +826,8 @@
       <c r="B3" s="3">
         <v>43132</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.60416666666666663</v>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>56</v>
@@ -822,8 +840,8 @@
       <c r="B4" s="3">
         <v>43132</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.61111111111111105</v>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>60</v>
@@ -831,22 +849,34 @@
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="10"/>
+      <c r="B5" s="3">
+        <v>43133</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>43133</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
-        <v>43136</v>
+        <v>43133</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="4"/>
@@ -854,15 +884,15 @@
     </row>
     <row r="8" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
-        <v>43137</v>
+        <v>43136</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="4"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
-        <v>43139</v>
+      <c r="B9" s="3">
+        <v>43137</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="4"/>
@@ -870,7 +900,7 @@
     </row>
     <row r="10" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
-        <v>43140</v>
+        <v>43139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="4"/>
@@ -878,7 +908,7 @@
     </row>
     <row r="11" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
-        <v>43143</v>
+        <v>43140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="4"/>
@@ -886,7 +916,7 @@
     </row>
     <row r="12" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
-        <v>43144</v>
+        <v>43143</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
@@ -894,7 +924,7 @@
     </row>
     <row r="13" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
-        <v>43146</v>
+        <v>43144</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
@@ -902,7 +932,7 @@
     </row>
     <row r="14" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
-        <v>43147</v>
+        <v>43146</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="4"/>
@@ -910,7 +940,7 @@
     </row>
     <row r="15" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
-        <v>43157</v>
+        <v>43147</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="4"/>
@@ -918,7 +948,7 @@
     </row>
     <row r="16" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
-        <v>43158</v>
+        <v>43157</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="4"/>
@@ -926,7 +956,7 @@
     </row>
     <row r="17" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
-        <v>371878</v>
+        <v>43158</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="4"/>
@@ -934,7 +964,7 @@
     </row>
     <row r="18" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
-        <v>43161</v>
+        <v>371878</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
@@ -942,7 +972,7 @@
     </row>
     <row r="19" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
-        <v>43164</v>
+        <v>43161</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="4"/>
@@ -950,7 +980,7 @@
     </row>
     <row r="20" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
-        <v>43165</v>
+        <v>43164</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="4"/>
@@ -958,7 +988,7 @@
     </row>
     <row r="21" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
-        <v>43167</v>
+        <v>43165</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
@@ -966,7 +996,7 @@
     </row>
     <row r="22" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
-        <v>43168</v>
+        <v>43167</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4"/>
@@ -974,7 +1004,7 @@
     </row>
     <row r="23" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
-        <v>43171</v>
+        <v>43168</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="4"/>
@@ -982,7 +1012,7 @@
     </row>
     <row r="24" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
-        <v>43172</v>
+        <v>43171</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="4"/>
@@ -990,7 +1020,7 @@
     </row>
     <row r="25" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
-        <v>43174</v>
+        <v>43172</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="4"/>
@@ -998,7 +1028,7 @@
     </row>
     <row r="26" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
-        <v>43175</v>
+        <v>43174</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="4"/>
@@ -1006,7 +1036,7 @@
     </row>
     <row r="27" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
-        <v>43178</v>
+        <v>43175</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="4"/>
@@ -1014,7 +1044,7 @@
     </row>
     <row r="28" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
-        <v>43179</v>
+        <v>43178</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
@@ -1022,7 +1052,7 @@
     </row>
     <row r="29" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
-        <v>43181</v>
+        <v>43179</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="4"/>
@@ -1030,7 +1060,7 @@
     </row>
     <row r="30" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
-        <v>43185</v>
+        <v>43181</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="4"/>
@@ -1038,7 +1068,7 @@
     </row>
     <row r="31" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
-        <v>43186</v>
+        <v>43185</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="4"/>
@@ -1046,7 +1076,7 @@
     </row>
     <row r="32" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
-        <v>43188</v>
+        <v>43186</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="4"/>
@@ -1054,7 +1084,7 @@
     </row>
     <row r="33" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
-        <v>43206</v>
+        <v>43188</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="4"/>
@@ -1062,7 +1092,7 @@
     </row>
     <row r="34" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
-        <v>43207</v>
+        <v>43206</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="4"/>
@@ -1070,7 +1100,7 @@
     </row>
     <row r="35" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
-        <v>43209</v>
+        <v>43207</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="4"/>
@@ -1078,11 +1108,19 @@
     </row>
     <row r="36" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
-        <v>43210</v>
+        <v>43209</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="4"/>
       <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="11">
+        <v>43210</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="10"/>
     </row>
   </sheetData>
   <dataValidations xWindow="45" yWindow="267" count="5">
@@ -1409,6 +1447,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA3F7D94069FF64A86F7DFF56D60E3BE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c32302c77d4085ecf495bdddb7f5e889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4f35948-e619-41b3-aa29-22878b09cfd2" xmlns:ns3="40262f94-9f35-4ac3-9a90-690165a166b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab5ae46be95f9d0be6107e8200be7a2" ns2:_="" ns3:_="">
     <xsd:import namespace="a4f35948-e619-41b3-aa29-22878b09cfd2"/>
@@ -1589,27 +1647,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1934E82E-1C0E-415F-9886-064BC72C3B49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{885137DC-D143-4691-87B9-2812AFF1A34F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B53890C6-895E-4346-BCB4-738C50EDC5D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1626,22 +1682,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{885137DC-D143-4691-87B9-2812AFF1A34F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1934E82E-1C0E-415F-9886-064BC72C3B49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Journal de travail.xlsx
+++ b/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>DATE</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>Github</t>
+  </si>
+  <si>
+    <t>Réalisation des uses cases + scénarios</t>
+  </si>
+  <si>
+    <t>changement dans certains uses cases et insertion de divers scenarios</t>
   </si>
 </sst>
 </file>
@@ -538,8 +544,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Log" displayName="Log" ref="B2:E37" totalsRowShown="0">
-  <autoFilter ref="B2:E37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Log" displayName="Log" ref="B2:E36" totalsRowShown="0">
+  <autoFilter ref="B2:E36"/>
   <tableColumns count="4">
     <tableColumn id="1" name="DATE" dataCellStyle="Date Column"/>
     <tableColumn id="2" name="HEURE" dataCellStyle="Time Column"/>
@@ -786,10 +792,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E37"/>
+  <dimension ref="B1:E36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -876,23 +882,29 @@
     </row>
     <row r="7" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
-        <v>43133</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="10"/>
+        <v>43136</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="4"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>43137</v>
+      <c r="B9" s="11">
+        <v>43139</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="4"/>
@@ -900,7 +912,7 @@
     </row>
     <row r="10" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="4"/>
@@ -908,7 +920,7 @@
     </row>
     <row r="11" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
-        <v>43140</v>
+        <v>43143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="4"/>
@@ -916,7 +928,7 @@
     </row>
     <row r="12" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
-        <v>43143</v>
+        <v>43144</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
@@ -924,7 +936,7 @@
     </row>
     <row r="13" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
-        <v>43144</v>
+        <v>43146</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
@@ -932,7 +944,7 @@
     </row>
     <row r="14" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
-        <v>43146</v>
+        <v>43147</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="4"/>
@@ -940,7 +952,7 @@
     </row>
     <row r="15" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
-        <v>43147</v>
+        <v>43157</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="4"/>
@@ -948,7 +960,7 @@
     </row>
     <row r="16" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
-        <v>43157</v>
+        <v>43158</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="4"/>
@@ -956,7 +968,7 @@
     </row>
     <row r="17" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
-        <v>43158</v>
+        <v>371878</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="4"/>
@@ -964,7 +976,7 @@
     </row>
     <row r="18" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
-        <v>371878</v>
+        <v>43161</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
@@ -972,7 +984,7 @@
     </row>
     <row r="19" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="4"/>
@@ -980,7 +992,7 @@
     </row>
     <row r="20" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
-        <v>43164</v>
+        <v>43165</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="4"/>
@@ -988,7 +1000,7 @@
     </row>
     <row r="21" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
-        <v>43165</v>
+        <v>43167</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
@@ -996,7 +1008,7 @@
     </row>
     <row r="22" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4"/>
@@ -1004,7 +1016,7 @@
     </row>
     <row r="23" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
-        <v>43168</v>
+        <v>43171</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="4"/>
@@ -1012,7 +1024,7 @@
     </row>
     <row r="24" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
-        <v>43171</v>
+        <v>43172</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="4"/>
@@ -1020,7 +1032,7 @@
     </row>
     <row r="25" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="4"/>
@@ -1028,7 +1040,7 @@
     </row>
     <row r="26" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
-        <v>43174</v>
+        <v>43175</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="4"/>
@@ -1036,7 +1048,7 @@
     </row>
     <row r="27" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
-        <v>43175</v>
+        <v>43178</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="4"/>
@@ -1044,7 +1056,7 @@
     </row>
     <row r="28" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
-        <v>43178</v>
+        <v>43179</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
@@ -1052,7 +1064,7 @@
     </row>
     <row r="29" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
-        <v>43179</v>
+        <v>43181</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="4"/>
@@ -1060,7 +1072,7 @@
     </row>
     <row r="30" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
-        <v>43181</v>
+        <v>43185</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="4"/>
@@ -1068,7 +1080,7 @@
     </row>
     <row r="31" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
-        <v>43185</v>
+        <v>43186</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="4"/>
@@ -1076,7 +1088,7 @@
     </row>
     <row r="32" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
-        <v>43186</v>
+        <v>43188</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="4"/>
@@ -1084,7 +1096,7 @@
     </row>
     <row r="33" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
-        <v>43188</v>
+        <v>43206</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="4"/>
@@ -1092,7 +1104,7 @@
     </row>
     <row r="34" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
-        <v>43206</v>
+        <v>43207</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="4"/>
@@ -1100,7 +1112,7 @@
     </row>
     <row r="35" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
-        <v>43207</v>
+        <v>43209</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="4"/>
@@ -1108,19 +1120,11 @@
     </row>
     <row r="36" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="4"/>
       <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="11">
-        <v>43210</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="10"/>
     </row>
   </sheetData>
   <dataValidations xWindow="45" yWindow="267" count="5">
@@ -1456,17 +1460,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA3F7D94069FF64A86F7DFF56D60E3BE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c32302c77d4085ecf495bdddb7f5e889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4f35948-e619-41b3-aa29-22878b09cfd2" xmlns:ns3="40262f94-9f35-4ac3-9a90-690165a166b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab5ae46be95f9d0be6107e8200be7a2" ns2:_="" ns3:_="">
     <xsd:import namespace="a4f35948-e619-41b3-aa29-22878b09cfd2"/>
@@ -1647,6 +1640,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1934E82E-1C0E-415F-9886-064BC72C3B49}">
   <ds:schemaRefs>
@@ -1656,16 +1660,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{885137DC-D143-4691-87B9-2812AFF1A34F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B53890C6-895E-4346-BCB4-738C50EDC5D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1682,4 +1676,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{885137DC-D143-4691-87B9-2812AFF1A34F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Journal de travail.xlsx
+++ b/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>DATE</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>changement dans certains uses cases et insertion de divers scenarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réalisation des maquettes ( menu principal, menu d'édition) </t>
   </si>
 </sst>
 </file>
@@ -795,7 +798,7 @@
   <dimension ref="B1:E36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -898,8 +901,12 @@
       <c r="B8" s="3">
         <v>43137</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1460,6 +1467,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA3F7D94069FF64A86F7DFF56D60E3BE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c32302c77d4085ecf495bdddb7f5e889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4f35948-e619-41b3-aa29-22878b09cfd2" xmlns:ns3="40262f94-9f35-4ac3-9a90-690165a166b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab5ae46be95f9d0be6107e8200be7a2" ns2:_="" ns3:_="">
     <xsd:import namespace="a4f35948-e619-41b3-aa29-22878b09cfd2"/>
@@ -1640,17 +1658,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1934E82E-1C0E-415F-9886-064BC72C3B49}">
   <ds:schemaRefs>
@@ -1660,6 +1667,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{885137DC-D143-4691-87B9-2812AFF1A34F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B53890C6-895E-4346-BCB4-738C50EDC5D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1676,14 +1693,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{885137DC-D143-4691-87B9-2812AFF1A34F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Journal de travail.xlsx
+++ b/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>DATE</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t xml:space="preserve">Réalisation des maquettes ( menu principal, menu d'édition) </t>
+  </si>
+  <si>
+    <t>225 min</t>
+  </si>
+  <si>
+    <t>Réalisation des maquettes (menu de terrain, menu de texture, menu de prédifinition</t>
   </si>
 </sst>
 </file>
@@ -547,8 +553,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Log" displayName="Log" ref="B2:E36" totalsRowShown="0">
-  <autoFilter ref="B2:E36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Log" displayName="Log" ref="B2:E37" totalsRowShown="0">
+  <autoFilter ref="B2:E37"/>
   <tableColumns count="4">
     <tableColumn id="1" name="DATE" dataCellStyle="Date Column"/>
     <tableColumn id="2" name="HEURE" dataCellStyle="Time Column"/>
@@ -795,10 +801,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E36"/>
+  <dimension ref="B1:E37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -913,13 +919,17 @@
       <c r="B9" s="11">
         <v>43139</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
-        <v>43140</v>
+      <c r="B10" s="3">
+        <v>43139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="4"/>
@@ -927,7 +937,7 @@
     </row>
     <row r="11" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
-        <v>43143</v>
+        <v>43140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="4"/>
@@ -935,7 +945,7 @@
     </row>
     <row r="12" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
-        <v>43144</v>
+        <v>43143</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
@@ -943,7 +953,7 @@
     </row>
     <row r="13" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
-        <v>43146</v>
+        <v>43144</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
@@ -951,7 +961,7 @@
     </row>
     <row r="14" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
-        <v>43147</v>
+        <v>43146</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="4"/>
@@ -959,7 +969,7 @@
     </row>
     <row r="15" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
-        <v>43157</v>
+        <v>43147</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="4"/>
@@ -967,7 +977,7 @@
     </row>
     <row r="16" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
-        <v>43158</v>
+        <v>43157</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="4"/>
@@ -975,7 +985,7 @@
     </row>
     <row r="17" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
-        <v>371878</v>
+        <v>43158</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="4"/>
@@ -983,7 +993,7 @@
     </row>
     <row r="18" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
-        <v>43161</v>
+        <v>371878</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
@@ -991,7 +1001,7 @@
     </row>
     <row r="19" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
-        <v>43164</v>
+        <v>43161</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="4"/>
@@ -999,7 +1009,7 @@
     </row>
     <row r="20" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
-        <v>43165</v>
+        <v>43164</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="4"/>
@@ -1007,7 +1017,7 @@
     </row>
     <row r="21" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
-        <v>43167</v>
+        <v>43165</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
@@ -1015,7 +1025,7 @@
     </row>
     <row r="22" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
-        <v>43168</v>
+        <v>43167</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4"/>
@@ -1023,7 +1033,7 @@
     </row>
     <row r="23" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
-        <v>43171</v>
+        <v>43168</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="4"/>
@@ -1031,7 +1041,7 @@
     </row>
     <row r="24" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
-        <v>43172</v>
+        <v>43171</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="4"/>
@@ -1039,7 +1049,7 @@
     </row>
     <row r="25" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
-        <v>43174</v>
+        <v>43172</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="4"/>
@@ -1047,7 +1057,7 @@
     </row>
     <row r="26" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
-        <v>43175</v>
+        <v>43174</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="4"/>
@@ -1055,7 +1065,7 @@
     </row>
     <row r="27" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
-        <v>43178</v>
+        <v>43175</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="4"/>
@@ -1063,7 +1073,7 @@
     </row>
     <row r="28" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
-        <v>43179</v>
+        <v>43178</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
@@ -1071,7 +1081,7 @@
     </row>
     <row r="29" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
-        <v>43181</v>
+        <v>43179</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="4"/>
@@ -1079,7 +1089,7 @@
     </row>
     <row r="30" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
-        <v>43185</v>
+        <v>43181</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="4"/>
@@ -1087,7 +1097,7 @@
     </row>
     <row r="31" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
-        <v>43186</v>
+        <v>43185</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="4"/>
@@ -1095,7 +1105,7 @@
     </row>
     <row r="32" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
-        <v>43188</v>
+        <v>43186</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="4"/>
@@ -1103,7 +1113,7 @@
     </row>
     <row r="33" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
-        <v>43206</v>
+        <v>43188</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="4"/>
@@ -1111,7 +1121,7 @@
     </row>
     <row r="34" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
-        <v>43207</v>
+        <v>43206</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="4"/>
@@ -1119,7 +1129,7 @@
     </row>
     <row r="35" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
-        <v>43209</v>
+        <v>43207</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="4"/>
@@ -1127,11 +1137,19 @@
     </row>
     <row r="36" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
-        <v>43210</v>
+        <v>43209</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="4"/>
       <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="11">
+        <v>43210</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="10"/>
     </row>
   </sheetData>
   <dataValidations xWindow="45" yWindow="267" count="5">
@@ -1458,26 +1476,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA3F7D94069FF64A86F7DFF56D60E3BE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c32302c77d4085ecf495bdddb7f5e889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4f35948-e619-41b3-aa29-22878b09cfd2" xmlns:ns3="40262f94-9f35-4ac3-9a90-690165a166b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab5ae46be95f9d0be6107e8200be7a2" ns2:_="" ns3:_="">
     <xsd:import namespace="a4f35948-e619-41b3-aa29-22878b09cfd2"/>
@@ -1658,25 +1656,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1934E82E-1C0E-415F-9886-064BC72C3B49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{885137DC-D143-4691-87B9-2812AFF1A34F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B53890C6-895E-4346-BCB4-738C50EDC5D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1693,4 +1693,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{885137DC-D143-4691-87B9-2812AFF1A34F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1934E82E-1C0E-415F-9886-064BC72C3B49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Journal de travail.xlsx
+++ b/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>DATE</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Réalisation des maquettes (menu de terrain, menu de texture, menu de prédifinition</t>
+  </si>
+  <si>
+    <t>Réalisation des maquettes (menu d'eau, arbres</t>
   </si>
 </sst>
 </file>
@@ -804,7 +807,7 @@
   <dimension ref="B1:E37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -931,8 +934,12 @@
       <c r="B10" s="3">
         <v>43139</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,6 +1483,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA3F7D94069FF64A86F7DFF56D60E3BE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c32302c77d4085ecf495bdddb7f5e889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4f35948-e619-41b3-aa29-22878b09cfd2" xmlns:ns3="40262f94-9f35-4ac3-9a90-690165a166b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab5ae46be95f9d0be6107e8200be7a2" ns2:_="" ns3:_="">
     <xsd:import namespace="a4f35948-e619-41b3-aa29-22878b09cfd2"/>
@@ -1656,27 +1683,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1934E82E-1C0E-415F-9886-064BC72C3B49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{885137DC-D143-4691-87B9-2812AFF1A34F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B53890C6-895E-4346-BCB4-738C50EDC5D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1693,22 +1718,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{885137DC-D143-4691-87B9-2812AFF1A34F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1934E82E-1C0E-415F-9886-064BC72C3B49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Journal de travail.xlsx
+++ b/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>DATE</t>
   </si>
@@ -242,7 +242,22 @@
     <t>Réalisation des maquettes (menu de terrain, menu de texture, menu de prédifinition</t>
   </si>
   <si>
-    <t>Réalisation des maquettes (menu d'eau, arbres</t>
+    <t>70 min</t>
+  </si>
+  <si>
+    <t>Réalisation des maquettes( menu de plantes )</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>Réalisation du MCD</t>
+  </si>
+  <si>
+    <t>Réflexion sur papier</t>
+  </si>
+  <si>
+    <t>Réalisation des maquettes (menu d'eau, arbres)</t>
   </si>
 </sst>
 </file>
@@ -556,8 +571,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Log" displayName="Log" ref="B2:E37" totalsRowShown="0">
-  <autoFilter ref="B2:E37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Log" displayName="Log" ref="B2:E38" totalsRowShown="0">
+  <autoFilter ref="B2:E38"/>
   <tableColumns count="4">
     <tableColumn id="1" name="DATE" dataCellStyle="Date Column"/>
     <tableColumn id="2" name="HEURE" dataCellStyle="Time Column"/>
@@ -804,10 +819,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E37"/>
+  <dimension ref="B1:E38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -938,7 +953,7 @@
         <v>61</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -946,21 +961,31 @@
       <c r="B11" s="11">
         <v>43140</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
-        <v>43143</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="10"/>
+        <v>43140</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
-        <v>43144</v>
+        <v>43143</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
@@ -968,7 +993,7 @@
     </row>
     <row r="14" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
-        <v>43146</v>
+        <v>43144</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="4"/>
@@ -976,7 +1001,7 @@
     </row>
     <row r="15" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
-        <v>43147</v>
+        <v>43146</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="4"/>
@@ -984,7 +1009,7 @@
     </row>
     <row r="16" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
-        <v>43157</v>
+        <v>43147</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="4"/>
@@ -992,7 +1017,7 @@
     </row>
     <row r="17" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
-        <v>43158</v>
+        <v>43157</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="4"/>
@@ -1000,7 +1025,7 @@
     </row>
     <row r="18" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
-        <v>371878</v>
+        <v>43158</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
@@ -1008,7 +1033,7 @@
     </row>
     <row r="19" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
-        <v>43161</v>
+        <v>371878</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="4"/>
@@ -1016,7 +1041,7 @@
     </row>
     <row r="20" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
-        <v>43164</v>
+        <v>43161</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="4"/>
@@ -1024,7 +1049,7 @@
     </row>
     <row r="21" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
-        <v>43165</v>
+        <v>43164</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
@@ -1032,7 +1057,7 @@
     </row>
     <row r="22" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
-        <v>43167</v>
+        <v>43165</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4"/>
@@ -1040,7 +1065,7 @@
     </row>
     <row r="23" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
-        <v>43168</v>
+        <v>43167</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="4"/>
@@ -1048,7 +1073,7 @@
     </row>
     <row r="24" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
-        <v>43171</v>
+        <v>43168</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="4"/>
@@ -1056,7 +1081,7 @@
     </row>
     <row r="25" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
-        <v>43172</v>
+        <v>43171</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="4"/>
@@ -1064,7 +1089,7 @@
     </row>
     <row r="26" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
-        <v>43174</v>
+        <v>43172</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="4"/>
@@ -1072,7 +1097,7 @@
     </row>
     <row r="27" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
-        <v>43175</v>
+        <v>43174</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="4"/>
@@ -1080,7 +1105,7 @@
     </row>
     <row r="28" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
-        <v>43178</v>
+        <v>43175</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
@@ -1088,7 +1113,7 @@
     </row>
     <row r="29" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
-        <v>43179</v>
+        <v>43178</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="4"/>
@@ -1096,7 +1121,7 @@
     </row>
     <row r="30" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
-        <v>43181</v>
+        <v>43179</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="4"/>
@@ -1104,7 +1129,7 @@
     </row>
     <row r="31" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
-        <v>43185</v>
+        <v>43181</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="4"/>
@@ -1112,7 +1137,7 @@
     </row>
     <row r="32" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
-        <v>43186</v>
+        <v>43185</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="4"/>
@@ -1120,7 +1145,7 @@
     </row>
     <row r="33" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
-        <v>43188</v>
+        <v>43186</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="4"/>
@@ -1128,7 +1153,7 @@
     </row>
     <row r="34" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
-        <v>43206</v>
+        <v>43188</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="4"/>
@@ -1136,7 +1161,7 @@
     </row>
     <row r="35" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
-        <v>43207</v>
+        <v>43206</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="4"/>
@@ -1144,7 +1169,7 @@
     </row>
     <row r="36" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
-        <v>43209</v>
+        <v>43207</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="4"/>
@@ -1152,11 +1177,19 @@
     </row>
     <row r="37" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
-        <v>43210</v>
+        <v>43209</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="4"/>
       <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="11">
+        <v>43210</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="10"/>
     </row>
   </sheetData>
   <dataValidations xWindow="45" yWindow="267" count="5">

--- a/Journal de travail.xlsx
+++ b/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
   <si>
     <t>DATE</t>
   </si>
@@ -258,6 +258,24 @@
   </si>
   <si>
     <t>Réalisation des maquettes (menu d'eau, arbres)</t>
+  </si>
+  <si>
+    <t>Mise au point avec le responsable du projet</t>
+  </si>
+  <si>
+    <t>Définition des librables</t>
+  </si>
+  <si>
+    <t>50 min</t>
+  </si>
+  <si>
+    <t>40 min</t>
+  </si>
+  <si>
+    <t>Définition des du MCD, définition des données enregistrables, et qu'est ce qu'il faut mettre sur le serveur d'hébergement</t>
+  </si>
+  <si>
+    <t>Notes sur papier</t>
   </si>
 </sst>
 </file>
@@ -571,8 +589,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Log" displayName="Log" ref="B2:E38" totalsRowShown="0">
-  <autoFilter ref="B2:E38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Log" displayName="Log" ref="B2:E39" totalsRowShown="0">
+  <autoFilter ref="B2:E39"/>
   <tableColumns count="4">
     <tableColumn id="1" name="DATE" dataCellStyle="Date Column"/>
     <tableColumn id="2" name="HEURE" dataCellStyle="Time Column"/>
@@ -819,10 +837,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E38"/>
+  <dimension ref="B1:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -987,21 +1005,33 @@
       <c r="B13" s="11">
         <v>43143</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="10"/>
+      <c r="C13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
-        <v>43144</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="3">
+        <v>43143</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
-        <v>43146</v>
+        <v>43144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="4"/>
@@ -1009,7 +1039,7 @@
     </row>
     <row r="16" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
-        <v>43147</v>
+        <v>43146</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="4"/>
@@ -1017,7 +1047,7 @@
     </row>
     <row r="17" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
-        <v>43157</v>
+        <v>43147</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="4"/>
@@ -1025,7 +1055,7 @@
     </row>
     <row r="18" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
-        <v>43158</v>
+        <v>43157</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
@@ -1033,7 +1063,7 @@
     </row>
     <row r="19" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
-        <v>371878</v>
+        <v>43158</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="4"/>
@@ -1041,7 +1071,7 @@
     </row>
     <row r="20" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
-        <v>43161</v>
+        <v>371878</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="4"/>
@@ -1049,7 +1079,7 @@
     </row>
     <row r="21" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
-        <v>43164</v>
+        <v>43161</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
@@ -1057,7 +1087,7 @@
     </row>
     <row r="22" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
-        <v>43165</v>
+        <v>43164</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4"/>
@@ -1065,7 +1095,7 @@
     </row>
     <row r="23" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
-        <v>43167</v>
+        <v>43165</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="4"/>
@@ -1073,7 +1103,7 @@
     </row>
     <row r="24" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
-        <v>43168</v>
+        <v>43167</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="4"/>
@@ -1081,7 +1111,7 @@
     </row>
     <row r="25" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
-        <v>43171</v>
+        <v>43168</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="4"/>
@@ -1089,7 +1119,7 @@
     </row>
     <row r="26" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
-        <v>43172</v>
+        <v>43171</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="4"/>
@@ -1097,7 +1127,7 @@
     </row>
     <row r="27" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
-        <v>43174</v>
+        <v>43172</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="4"/>
@@ -1105,7 +1135,7 @@
     </row>
     <row r="28" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
-        <v>43175</v>
+        <v>43174</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
@@ -1113,7 +1143,7 @@
     </row>
     <row r="29" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
-        <v>43178</v>
+        <v>43175</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="4"/>
@@ -1121,7 +1151,7 @@
     </row>
     <row r="30" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
-        <v>43179</v>
+        <v>43178</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="4"/>
@@ -1129,7 +1159,7 @@
     </row>
     <row r="31" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
-        <v>43181</v>
+        <v>43179</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="4"/>
@@ -1137,7 +1167,7 @@
     </row>
     <row r="32" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
-        <v>43185</v>
+        <v>43181</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="4"/>
@@ -1145,7 +1175,7 @@
     </row>
     <row r="33" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
-        <v>43186</v>
+        <v>43185</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="4"/>
@@ -1153,7 +1183,7 @@
     </row>
     <row r="34" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
-        <v>43188</v>
+        <v>43186</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="4"/>
@@ -1161,7 +1191,7 @@
     </row>
     <row r="35" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
-        <v>43206</v>
+        <v>43188</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="4"/>
@@ -1169,7 +1199,7 @@
     </row>
     <row r="36" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
-        <v>43207</v>
+        <v>43206</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="4"/>
@@ -1177,7 +1207,7 @@
     </row>
     <row r="37" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
-        <v>43209</v>
+        <v>43207</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="4"/>
@@ -1185,11 +1215,19 @@
     </row>
     <row r="38" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
-        <v>43210</v>
+        <v>43209</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
       <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="11">
+        <v>43210</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="10"/>
     </row>
   </sheetData>
   <dataValidations xWindow="45" yWindow="267" count="5">
@@ -1516,26 +1554,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA3F7D94069FF64A86F7DFF56D60E3BE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c32302c77d4085ecf495bdddb7f5e889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4f35948-e619-41b3-aa29-22878b09cfd2" xmlns:ns3="40262f94-9f35-4ac3-9a90-690165a166b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab5ae46be95f9d0be6107e8200be7a2" ns2:_="" ns3:_="">
     <xsd:import namespace="a4f35948-e619-41b3-aa29-22878b09cfd2"/>
@@ -1716,25 +1734,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1934E82E-1C0E-415F-9886-064BC72C3B49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{885137DC-D143-4691-87B9-2812AFF1A34F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B53890C6-895E-4346-BCB4-738C50EDC5D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1751,4 +1771,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{885137DC-D143-4691-87B9-2812AFF1A34F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1934E82E-1C0E-415F-9886-064BC72C3B49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>